--- a/output/table2021_multivariate.xlsx
+++ b/output/table2021_multivariate.xlsx
@@ -17,6 +17,15 @@
     <t xml:space="preserve">term</t>
   </si>
   <si>
+    <t xml:space="preserve">estimate_Onset timing 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf.low_Onset timing 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf.high_Onset timing 2021</t>
+  </si>
+  <si>
     <t xml:space="preserve">estimate_Peak timing 2021</t>
   </si>
   <si>
@@ -26,9 +35,6 @@
     <t xml:space="preserve">conf.high_Peak timing 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">p.value_Peak timing 2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">estimate_Growth rate 2021</t>
   </si>
   <si>
@@ -38,9 +44,6 @@
     <t xml:space="preserve">conf.high_Growth rate 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">p.value_Growth rate 2021</t>
-  </si>
-  <si>
     <t xml:space="preserve">estimate_Intensity 2021</t>
   </si>
   <si>
@@ -48,9 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">conf.high_Intensity 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p.value_Intensity 2021</t>
   </si>
   <si>
     <t xml:space="preserve">Climate Zone 
@@ -61,14 +61,14 @@
  Tropical (vs temperate)</t>
   </si>
   <si>
+    <t xml:space="preserve">Population median age</t>
+  </si>
+  <si>
     <t xml:space="preserve">Hemisphere 
  Southern (vs Northern)</t>
   </si>
   <si>
     <t xml:space="preserve">Population density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Population median age</t>
   </si>
   <si>
     <t xml:space="preserve">RSV out-of-season in 2021, yes</t>
@@ -452,19 +452,23 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
+        <v>2.71786429349709</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.17377945633509</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.26194913065908</v>
+      </c>
+      <c r="E2" t="n">
         <v>-0.900559984682197</v>
       </c>
-      <c r="C2" t="n">
+      <c r="F2" t="n">
         <v>-2.15945165104764</v>
       </c>
-      <c r="D2" t="n">
+      <c r="G2" t="n">
         <v>0.358331681683246</v>
       </c>
-      <c r="E2" t="n">
-        <v>0.160891759905408</v>
-      </c>
-      <c r="F2"/>
-      <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
@@ -477,19 +481,23 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
+        <v>1.12378240992909</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.650303980952472</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.89786880081065</v>
+      </c>
+      <c r="E3" t="n">
         <v>-2.31204891986796</v>
       </c>
-      <c r="C3" t="n">
+      <c r="F3" t="n">
         <v>-4.11570998408561</v>
       </c>
-      <c r="D3" t="n">
+      <c r="G3" t="n">
         <v>-0.508387855650299</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.0119910342232507</v>
-      </c>
-      <c r="F3"/>
-      <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
@@ -502,29 +510,25 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>2.59434705064524</v>
+        <v>1.35025363295464</v>
       </c>
       <c r="C4" t="n">
-        <v>0.921810440556172</v>
+        <v>0.635718040343496</v>
       </c>
       <c r="D4" t="n">
-        <v>4.26688366073431</v>
+        <v>2.06478922556578</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00236430021423939</v>
+        <v>-0.769248964708568</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.461074655235329</v>
+        <v>-1.44838595853076</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.40420472936037</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.482055418889715</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.323647998059704</v>
-      </c>
+        <v>-0.0901119708863726</v>
+      </c>
+      <c r="H4"/>
+      <c r="I4"/>
       <c r="J4"/>
       <c r="K4"/>
       <c r="L4"/>
@@ -535,22 +539,32 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.929258840720666</v>
+        <v>2.55275738876301</v>
       </c>
       <c r="C5" t="n">
-        <v>0.308247627840502</v>
+        <v>1.07659563875485</v>
       </c>
       <c r="D5" t="n">
-        <v>1.55027005360083</v>
+        <v>4.02891913877117</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00335898998805557</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5"/>
-      <c r="I5"/>
-      <c r="J5"/>
+        <v>2.59434705064524</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.921810440556172</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.26688366073431</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.461074655235329</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-1.40420472936037</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.482055418889715</v>
+      </c>
       <c r="K5"/>
       <c r="L5"/>
       <c r="M5"/>
@@ -560,19 +574,23 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.769248964708568</v>
+        <v>1.19827052009709</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.44838595853076</v>
+        <v>0.625431250326866</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0901119708863726</v>
+        <v>1.77110978986731</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0264171544528343</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6"/>
+        <v>0.929258840720666</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.308247627840502</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.55027005360083</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
@@ -588,29 +606,25 @@
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7" t="n">
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7" t="n">
         <v>0.459969647966236</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>-0.347678695638422</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>1.26761799157089</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.251873986877063</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.989102953516459</v>
-      </c>
       <c r="K7" t="n">
-        <v>0.261070439430963</v>
+        <v>0.990980623934195</v>
       </c>
       <c r="L7" t="n">
-        <v>1.71713546760196</v>
+        <v>0.263677365635504</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00975350830441003</v>
+        <v>1.71828388223288</v>
       </c>
     </row>
     <row r="8">
@@ -625,17 +639,15 @@
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" t="n">
-        <v>0.256050361946562</v>
-      </c>
+      <c r="J8"/>
       <c r="K8" t="n">
-        <v>-0.099193129855908</v>
+        <v>0.259657813938279</v>
       </c>
       <c r="L8" t="n">
-        <v>0.611293853749032</v>
+        <v>-0.0952298374764197</v>
       </c>
       <c r="M8" t="n">
-        <v>0.150186671043758</v>
+        <v>0.614545465352978</v>
       </c>
     </row>
   </sheetData>
